--- a/工作计划记录.xlsx
+++ b/工作计划记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7130" tabRatio="930" activeTab="5"/>
+    <workbookView windowWidth="18530" windowHeight="7120" tabRatio="930"/>
   </bookViews>
   <sheets>
     <sheet name="资产梳理及安全管理" sheetId="11" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="161">
   <si>
     <t>资产梳理</t>
   </si>
@@ -132,205 +132,208 @@
     <t>小程序</t>
   </si>
   <si>
+    <t>数据资产</t>
+  </si>
+  <si>
+    <t>数据库</t>
+  </si>
+  <si>
+    <t>账号过多</t>
+  </si>
+  <si>
+    <t>文档记录各账号归属及用途</t>
+  </si>
+  <si>
+    <t>日志中心</t>
+  </si>
+  <si>
+    <t>1.外网访问</t>
+  </si>
+  <si>
+    <t>不能外网访问</t>
+  </si>
+  <si>
+    <t>2.公共账号</t>
+  </si>
+  <si>
+    <t>每人一个账号</t>
+  </si>
+  <si>
+    <t>3.不同密级信息混杂</t>
+  </si>
+  <si>
+    <t>涉密信息单独存放</t>
+  </si>
+  <si>
+    <t>数据平台/大数据</t>
+  </si>
+  <si>
+    <t>华为云obs</t>
+  </si>
+  <si>
+    <t>就是深桐看板，只获取统计信息，无详细信息</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>第三方系统或服务</t>
+  </si>
+  <si>
+    <t>oss</t>
+  </si>
+  <si>
+    <t>权限过大，</t>
+  </si>
+  <si>
+    <t>正在处理</t>
+  </si>
+  <si>
+    <t>邮箱</t>
+  </si>
+  <si>
+    <t>权限信息缺失，</t>
+  </si>
+  <si>
+    <t>权限管理表格</t>
+  </si>
+  <si>
+    <t>公共账号</t>
+  </si>
+  <si>
+    <t>代码资产</t>
+  </si>
+  <si>
+    <t>git仓库按产品梳理分组</t>
+  </si>
+  <si>
+    <t>权限过大，无有效期设置</t>
+  </si>
+  <si>
+    <t>权限审计</t>
+  </si>
+  <si>
+    <t>容器资产</t>
+  </si>
+  <si>
+    <t>K8S</t>
+  </si>
+  <si>
+    <t>权限过大，权限信息缺失，公共账号</t>
+  </si>
+  <si>
+    <t>漏洞</t>
+  </si>
+  <si>
+    <t>禅道等</t>
+  </si>
+  <si>
+    <t>漏洞跟进复测</t>
+  </si>
+  <si>
+    <t>SRC</t>
+  </si>
+  <si>
+    <t>公司员工</t>
+  </si>
+  <si>
+    <t>安全意识培训</t>
+  </si>
+  <si>
+    <t>资产项</t>
+  </si>
+  <si>
+    <t>检查项</t>
+  </si>
+  <si>
+    <t>检查方式</t>
+  </si>
+  <si>
+    <t>IP</t>
+  </si>
+  <si>
+    <t>端口</t>
+  </si>
+  <si>
+    <t>服务器安全扫描</t>
+  </si>
+  <si>
+    <t>linglong+xray</t>
+  </si>
+  <si>
+    <t>内网测试</t>
+  </si>
+  <si>
+    <t>有效期</t>
+  </si>
+  <si>
+    <t>域名过期报警</t>
+  </si>
+  <si>
+    <t>域名入库</t>
+  </si>
+  <si>
+    <t>敏感路径</t>
+  </si>
+  <si>
+    <t>域名安全扫描</t>
+  </si>
+  <si>
+    <t>xray+crwler</t>
+  </si>
+  <si>
+    <t>API测试</t>
+  </si>
+  <si>
+    <t>自动化测试</t>
+  </si>
+  <si>
+    <t>jenkins自己写脚本</t>
+  </si>
+  <si>
+    <t>只能做回归漏洞测试，无法做其他的</t>
+  </si>
+  <si>
+    <t>zap，没有用</t>
+  </si>
+  <si>
+    <t>IAST</t>
+  </si>
+  <si>
+    <t>应用逻辑漏洞</t>
+  </si>
+  <si>
+    <t>安全测试</t>
+  </si>
+  <si>
+    <t>依赖漏洞</t>
+  </si>
+  <si>
+    <t>依赖包检查</t>
+  </si>
+  <si>
+    <t>https://owasp.org/www-project-dependency-check/</t>
+  </si>
+  <si>
+    <t>https://dimitr.im/dependency-vulnerability-checks-sonarqube</t>
+  </si>
+  <si>
+    <t>业务系统</t>
+  </si>
+  <si>
+    <t>弱口令</t>
+  </si>
+  <si>
+    <t>公共账户</t>
+  </si>
+  <si>
+    <t>数据脱敏</t>
+  </si>
+  <si>
+    <t>数据安全检查表</t>
+  </si>
+  <si>
     <t>数据库资产</t>
-  </si>
-  <si>
-    <t>数据库</t>
-  </si>
-  <si>
-    <t>账号过多</t>
-  </si>
-  <si>
-    <t>文档记录各账号归属及用途</t>
-  </si>
-  <si>
-    <t>日志中心</t>
-  </si>
-  <si>
-    <t>1.外网访问</t>
-  </si>
-  <si>
-    <t>不能外网访问</t>
-  </si>
-  <si>
-    <t>2.公共账号</t>
-  </si>
-  <si>
-    <t>每人一个账号</t>
-  </si>
-  <si>
-    <t>3.不同密级信息混杂</t>
-  </si>
-  <si>
-    <t>涉密信息单独存放</t>
-  </si>
-  <si>
-    <t>数据平台/大数据</t>
-  </si>
-  <si>
-    <t>华为云obs</t>
-  </si>
-  <si>
-    <t>就是深桐看板，只获取统计信息，无详细信息</t>
-  </si>
-  <si>
-    <t>无</t>
-  </si>
-  <si>
-    <t>第三方系统或服务</t>
-  </si>
-  <si>
-    <t>oss</t>
-  </si>
-  <si>
-    <t>权限过大，</t>
-  </si>
-  <si>
-    <t>正在处理</t>
-  </si>
-  <si>
-    <t>邮箱</t>
-  </si>
-  <si>
-    <t>权限信息缺失，</t>
-  </si>
-  <si>
-    <t>权限管理表格</t>
-  </si>
-  <si>
-    <t>公共账号</t>
-  </si>
-  <si>
-    <t>代码资产</t>
-  </si>
-  <si>
-    <t>git仓库按产品梳理分组</t>
-  </si>
-  <si>
-    <t>权限过大，无有效期设置</t>
-  </si>
-  <si>
-    <t>权限审计</t>
-  </si>
-  <si>
-    <t>容器资产</t>
-  </si>
-  <si>
-    <t>K8S</t>
-  </si>
-  <si>
-    <t>权限过大，权限信息缺失，公共账号</t>
-  </si>
-  <si>
-    <t>漏洞</t>
-  </si>
-  <si>
-    <t>禅道等</t>
-  </si>
-  <si>
-    <t>漏洞跟进复测</t>
-  </si>
-  <si>
-    <t>SRC</t>
-  </si>
-  <si>
-    <t>公司员工</t>
-  </si>
-  <si>
-    <t>安全意识培训</t>
-  </si>
-  <si>
-    <t>资产项</t>
-  </si>
-  <si>
-    <t>检查项</t>
-  </si>
-  <si>
-    <t>检查方式</t>
-  </si>
-  <si>
-    <t>IP</t>
-  </si>
-  <si>
-    <t>端口</t>
-  </si>
-  <si>
-    <t>服务器安全扫描</t>
-  </si>
-  <si>
-    <t>linglong+xray</t>
-  </si>
-  <si>
-    <t>内网测试</t>
-  </si>
-  <si>
-    <t>有效期</t>
-  </si>
-  <si>
-    <t>域名过期报警</t>
-  </si>
-  <si>
-    <t>域名入库</t>
-  </si>
-  <si>
-    <t>敏感路径</t>
-  </si>
-  <si>
-    <t>域名安全扫描</t>
-  </si>
-  <si>
-    <t>xray+crwler</t>
-  </si>
-  <si>
-    <t>API测试</t>
-  </si>
-  <si>
-    <t>自动化测试</t>
-  </si>
-  <si>
-    <t>jenkins自己写脚本</t>
-  </si>
-  <si>
-    <t>只能做回归漏洞测试，无法做其他的</t>
-  </si>
-  <si>
-    <t>zap，没有用</t>
-  </si>
-  <si>
-    <t>IAST</t>
-  </si>
-  <si>
-    <t>应用逻辑漏洞</t>
-  </si>
-  <si>
-    <t>安全测试</t>
-  </si>
-  <si>
-    <t>依赖漏洞</t>
-  </si>
-  <si>
-    <t>依赖包检查</t>
-  </si>
-  <si>
-    <t>https://owasp.org/www-project-dependency-check/</t>
-  </si>
-  <si>
-    <t>https://dimitr.im/dependency-vulnerability-checks-sonarqube</t>
-  </si>
-  <si>
-    <t>业务系统</t>
-  </si>
-  <si>
-    <t>弱口令</t>
-  </si>
-  <si>
-    <t>公共账户</t>
-  </si>
-  <si>
-    <t>数据脱敏</t>
-  </si>
-  <si>
-    <t>数据安全检查表</t>
   </si>
   <si>
     <t>端口开放</t>
@@ -1169,7 +1172,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1200,9 +1203,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
@@ -1557,13 +1557,15 @@
   <sheetPr/>
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="11.6363636363636" customWidth="1"/>
+    <col min="1" max="1" width="22.1818181818182" customWidth="1"/>
+    <col min="2" max="2" width="16.2727272727273" customWidth="1"/>
+    <col min="3" max="3" width="14.7272727272727" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
     <col min="6" max="6" width="21.5454545454545" customWidth="1"/>
   </cols>
@@ -1865,8 +1867,8 @@
     </row>
     <row r="24" spans="2:7">
       <c r="B24" s="7"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
@@ -1875,10 +1877,10 @@
       <c r="B25" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="F25" s="12" t="s">
+      <c r="F25" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="G25" s="12" t="s">
+      <c r="G25" s="11" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1920,8 +1922,8 @@
   <sheetPr/>
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -2112,10 +2114,10 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>37</v>
+        <v>104</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2130,19 +2132,19 @@
     <row r="25" s="7" customFormat="1" spans="1:3">
       <c r="A25" s="2"/>
       <c r="B25" s="9" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="26" customFormat="1" spans="1:3">
       <c r="A26" s="2"/>
       <c r="B26" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C26" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" customFormat="1" spans="1:2">
@@ -2151,13 +2153,13 @@
     </row>
     <row r="28" customFormat="1" spans="1:5">
       <c r="A28" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C28" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E28" t="s">
         <v>11</v>
@@ -2169,32 +2171,32 @@
         <v>56</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D29" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E29" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="30" customFormat="1" spans="1:3">
       <c r="A30" s="2"/>
       <c r="B30" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C30" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31" customFormat="1" ht="15" spans="1:7">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="G31" s="10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32" customFormat="1" spans="1:2">
@@ -2203,21 +2205,21 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D34" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E34" t="s">
         <v>11</v>
@@ -2228,19 +2230,19 @@
         <v>65</v>
       </c>
       <c r="B37" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2"/>
       <c r="B38" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2"/>
       <c r="B39" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -2253,33 +2255,33 @@
       <c r="A41" s="2"/>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="11" t="s">
-        <v>125</v>
+      <c r="A44" s="2" t="s">
+        <v>126</v>
       </c>
       <c r="B44" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C44" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="11"/>
+      <c r="A45" s="2"/>
       <c r="C45" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B47" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -2287,7 +2289,7 @@
         <v>71</v>
       </c>
       <c r="B51" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="52" ht="15" spans="2:3">
@@ -2324,7 +2326,7 @@
   <dimension ref="A1:J47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -2338,7 +2340,7 @@
         <v>73</v>
       </c>
       <c r="C1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:1">
@@ -2348,45 +2350,45 @@
     </row>
     <row r="3" spans="3:3">
       <c r="C3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="3:4">
       <c r="C4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D4" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="3:3">
       <c r="C5" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="3:3">
       <c r="C11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="3:3">
       <c r="C14" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="16" spans="1:1">
@@ -2406,7 +2408,7 @@
       </c>
       <c r="B19" s="3"/>
       <c r="C19" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -2551,7 +2553,7 @@
   <dimension ref="B3:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="2"/>
@@ -2561,7 +2563,7 @@
   <sheetData>
     <row r="3" spans="2:3">
       <c r="B3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -2574,27 +2576,27 @@
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="2:2">
       <c r="B11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -2609,58 +2611,58 @@
   <dimension ref="A3:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="A6" sqref="A6:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
   <sheetData>
     <row r="3" s="1" customFormat="1" ht="15" spans="2:8">
       <c r="B3" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B6" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2"/>
       <c r="B7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2"/>
       <c r="B8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="7:7">
       <c r="G14" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -2678,7 +2680,7 @@
   <sheetPr/>
   <dimension ref="B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
@@ -2686,7 +2688,7 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>

--- a/工作计划记录.xlsx
+++ b/工作计划记录.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18530" windowHeight="7120" tabRatio="930"/>
+    <workbookView windowWidth="18530" windowHeight="7090" tabRatio="930" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="资产梳理及安全管理" sheetId="11" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="180">
   <si>
     <t>资产梳理</t>
   </si>
@@ -63,6 +63,9 @@
     <t>jumpserver</t>
   </si>
   <si>
+    <t>K8S自带隔离及管理</t>
+  </si>
+  <si>
     <t>内网</t>
   </si>
   <si>
@@ -75,6 +78,9 @@
     <t>网络隔离</t>
   </si>
   <si>
+    <t>guest网无法访问其他。</t>
+  </si>
+  <si>
     <t>负载均衡</t>
   </si>
   <si>
@@ -183,7 +189,16 @@
     <t>oss</t>
   </si>
   <si>
-    <t>权限过大，</t>
+    <t>oss权限安全管理，梳理权限。ak，角色多对多</t>
+  </si>
+  <si>
+    <t>权限信息缺失，</t>
+  </si>
+  <si>
+    <t>权限管理表格</t>
+  </si>
+  <si>
+    <t>公共账号</t>
   </si>
   <si>
     <t>正在处理</t>
@@ -192,15 +207,6 @@
     <t>邮箱</t>
   </si>
   <si>
-    <t>权限信息缺失，</t>
-  </si>
-  <si>
-    <t>权限管理表格</t>
-  </si>
-  <si>
-    <t>公共账号</t>
-  </si>
-  <si>
     <t>代码资产</t>
   </si>
   <si>
@@ -240,6 +246,12 @@
     <t>安全意识培训</t>
   </si>
   <si>
+    <t>新员工培训</t>
+  </si>
+  <si>
+    <t>全员培训</t>
+  </si>
+  <si>
     <t>资产项</t>
   </si>
   <si>
@@ -373,6 +385,12 @@
   </si>
   <si>
     <t>第三方安全公告</t>
+  </si>
+  <si>
+    <t>oss文件病毒检查</t>
+  </si>
+  <si>
+    <t>上传病毒压缩包</t>
   </si>
   <si>
     <r>
@@ -437,37 +455,76 @@
     <t>APP信息收集规定</t>
   </si>
   <si>
+    <t>细分类型</t>
+  </si>
+  <si>
     <t>保护方式</t>
   </si>
   <si>
+    <t>云服务器</t>
+  </si>
+  <si>
+    <t>阿里云基础版免费</t>
+  </si>
+  <si>
+    <t>https://help.aliyun.com/document_detail/213179.html</t>
+  </si>
+  <si>
+    <t>华为基础版花钱</t>
+  </si>
+  <si>
     <t>K8S安全加固</t>
   </si>
   <si>
-    <t>oss文件病毒检查</t>
-  </si>
-  <si>
-    <t>上传病毒压缩包</t>
-  </si>
-  <si>
-    <t>oss权限安全管理，梳理权限。ak，角色多对多</t>
-  </si>
-  <si>
-    <t>全员培训</t>
-  </si>
-  <si>
-    <t>新员工培训</t>
+    <t>安全配置</t>
+  </si>
+  <si>
+    <t>主域名</t>
+  </si>
+  <si>
+    <t>续费，转移，DNS设置</t>
+  </si>
+  <si>
+    <t>子域名</t>
+  </si>
+  <si>
+    <t>WAF</t>
+  </si>
+  <si>
+    <t>APP</t>
+  </si>
+  <si>
+    <t>加壳加固</t>
+  </si>
+  <si>
+    <t>数据安全</t>
+  </si>
+  <si>
+    <t>脱敏</t>
+  </si>
+  <si>
+    <t>全链路日志追踪</t>
+  </si>
+  <si>
+    <t>取消批量操作</t>
+  </si>
+  <si>
+    <t>数据安全法等合规</t>
+  </si>
+  <si>
+    <t>补丁及更新，定期检查软件包</t>
+  </si>
+  <si>
+    <t>安全更新提醒</t>
+  </si>
+  <si>
+    <t>git监控</t>
   </si>
   <si>
     <t>小故事</t>
   </si>
   <si>
     <t>渗透CTF</t>
-  </si>
-  <si>
-    <t>讲一下模糊测试</t>
-  </si>
-  <si>
-    <t>安全培训</t>
   </si>
   <si>
     <t>安全情报监控及通知</t>
@@ -547,18 +604,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.8"/>
-      <color rgb="FFA9B7C6"/>
-      <name val="Courier New"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10.5"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -570,6 +615,26 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9.8"/>
+      <color rgb="FFA9B7C6"/>
+      <name val="Courier New"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -601,14 +666,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1030,10 +1087,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1042,19 +1099,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1066,7 +1123,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1087,13 +1144,13 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -1105,10 +1162,10 @@
     <xf numFmtId="0" fontId="21" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1123,56 +1180,56 @@
     <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1180,31 +1237,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1555,19 +1615,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="22.1818181818182" customWidth="1"/>
     <col min="2" max="2" width="16.2727272727273" customWidth="1"/>
     <col min="3" max="3" width="14.7272727272727" customWidth="1"/>
     <col min="4" max="4" width="23" customWidth="1"/>
     <col min="6" max="6" width="21.5454545454545" customWidth="1"/>
+    <col min="7" max="7" width="18.6363636363636" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -1593,7 +1654,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -1615,27 +1676,33 @@
       <c r="G2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="3:7">
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="3:8">
       <c r="C3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="2:5">
       <c r="B4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -1649,268 +1716,280 @@
     </row>
     <row r="5" spans="2:7">
       <c r="B5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
         <v>24</v>
       </c>
-      <c r="D6" t="s">
+      <c r="B7" t="s">
         <v>25</v>
       </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="C7" t="s">
         <v>26</v>
       </c>
-      <c r="G6" t="s">
+      <c r="D7" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="3:7">
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="3:7">
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" t="s">
-        <v>30</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>
       </c>
       <c r="F8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="7:7">
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="D10" t="s">
         <v>32</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7">
-      <c r="B9" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" t="s">
-        <v>30</v>
-      </c>
-      <c r="E9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" t="s">
-        <v>34</v>
-      </c>
-      <c r="G9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5">
-      <c r="B10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" t="s">
-        <v>30</v>
       </c>
       <c r="E10" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" s="7" customFormat="1" spans="1:7">
-      <c r="A12" s="7" t="s">
+      <c r="F10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="7" t="s">
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" t="s">
         <v>38</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" s="4" customFormat="1" spans="1:7">
+      <c r="A14" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="B14" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="13" s="7" customFormat="1" spans="2:7">
-      <c r="B13" s="9" t="s">
+      <c r="F14" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="G14" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G13" s="6" t="s">
+    </row>
+    <row r="15" s="4" customFormat="1" spans="2:7">
+      <c r="B15" s="5" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="14" s="7" customFormat="1" spans="2:7">
-      <c r="B14" s="9"/>
-      <c r="F14" s="7" t="s">
+      <c r="F15" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G15" s="7" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="15" s="7" customFormat="1" spans="2:7">
-      <c r="B15" s="9"/>
-      <c r="F15" s="7" t="s">
+    <row r="16" s="4" customFormat="1" spans="2:7">
+      <c r="B16" s="5"/>
+      <c r="F16" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G15" s="7" t="s">
+      <c r="G16" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="16" s="6" customFormat="1" spans="2:6">
-      <c r="B16" s="6" t="s">
+    <row r="17" s="4" customFormat="1" spans="2:7">
+      <c r="B17" s="5"/>
+      <c r="F17" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="6" t="s">
+      <c r="G17" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="6" t="s">
+    </row>
+    <row r="18" s="7" customFormat="1" spans="2:6">
+      <c r="B18" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="C18" s="7" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="19" s="6" customFormat="1" spans="1:7">
-      <c r="A19" s="6" t="s">
+      <c r="D18" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="F18" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E19" s="6" t="s">
+    </row>
+    <row r="21" s="7" customFormat="1" spans="1:8">
+      <c r="A21" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G19" s="6" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" s="7" customFormat="1" spans="2:7">
-      <c r="B20" s="7" t="s">
+      <c r="F21" t="s">
         <v>56</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="G21"/>
+      <c r="H21"/>
+    </row>
+    <row r="22" s="4" customFormat="1" spans="6:7">
+      <c r="F22" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G22" s="7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="21" s="7" customFormat="1" spans="6:7">
-      <c r="F21" s="7" t="s">
+    <row r="23" s="4" customFormat="1" spans="6:7">
+      <c r="F23" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="G21" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" t="s">
+      <c r="G23" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B22" t="s">
-        <v>60</v>
-      </c>
-      <c r="D22" t="s">
+    </row>
+    <row r="24" customFormat="1" spans="2:2">
+      <c r="B24" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="E22" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" t="s">
-        <v>62</v>
-      </c>
-      <c r="G22" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7">
-      <c r="B24" s="7"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" t="s">
+        <v>63</v>
+      </c>
+      <c r="E25" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" t="s">
         <v>64</v>
       </c>
-      <c r="B25" s="7" t="s">
+      <c r="G25" t="s">
         <v>65</v>
       </c>
-      <c r="F25" s="11" t="s">
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="4"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
         <v>66</v>
       </c>
-      <c r="G25" s="11" t="s">
+      <c r="B28" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G28" s="12" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
-      <c r="A28" t="s">
-        <v>67</v>
-      </c>
-      <c r="D28" t="s">
-        <v>68</v>
-      </c>
-      <c r="F28" t="s">
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="29" spans="4:4">
-      <c r="D29" t="s">
+      <c r="D31" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" t="s">
+      <c r="F31" t="s">
         <v>71</v>
       </c>
-      <c r="B31" t="s">
+    </row>
+    <row r="32" spans="4:4">
+      <c r="D32" s="4" t="s">
         <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" t="s">
+        <v>74</v>
+      </c>
+      <c r="D34" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4">
+      <c r="D35" s="4" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B13:B15"/>
+    <mergeCell ref="B15:B17"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -1922,8 +2001,8 @@
   <sheetPr/>
   <dimension ref="A1:G53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
@@ -1935,27 +2014,27 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D2" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
@@ -1964,22 +2043,22 @@
     <row r="3" spans="1:3">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="7" t="s">
-        <v>80</v>
+      <c r="C3" s="4" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C4" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="D4" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
@@ -1988,43 +2067,43 @@
     <row r="5" spans="1:5">
       <c r="A5" s="2"/>
       <c r="B5" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="D5" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" s="6" customFormat="1" spans="1:5">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="7" s="7" customFormat="1" spans="4:4">
-      <c r="D7" s="7" t="s">
+    <row r="6" s="7" customFormat="1" spans="1:5">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="8" s="7" customFormat="1" spans="1:3">
-      <c r="A8" s="9"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="7" t="s">
+      <c r="C6" s="7" t="s">
         <v>92</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" s="4" customFormat="1" spans="4:4">
+      <c r="D7" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" s="4" customFormat="1" spans="1:3">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2045,28 +2124,28 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C13" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2"/>
       <c r="B14" s="2" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C14" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D14" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E14" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2079,25 +2158,25 @@
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2"/>
       <c r="B18" s="2" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2"/>
       <c r="B19" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>103</v>
+        <v>106</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -2114,37 +2193,37 @@
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2"/>
-      <c r="B24" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" s="7" customFormat="1" spans="1:3">
+      <c r="B24" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" s="4" customFormat="1" spans="1:3">
       <c r="A25" s="2"/>
-      <c r="B25" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>107</v>
+      <c r="B25" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="26" customFormat="1" spans="1:3">
       <c r="A26" s="2"/>
       <c r="B26" s="2" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C26" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" customFormat="1" spans="1:2">
@@ -2153,13 +2232,13 @@
     </row>
     <row r="28" customFormat="1" spans="1:5">
       <c r="A28" s="2" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C28" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="E28" t="s">
         <v>11</v>
@@ -2168,35 +2247,41 @@
     <row r="29" customFormat="1" ht="15" spans="1:7">
       <c r="A29" s="2"/>
       <c r="B29" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>112</v>
+        <v>61</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>116</v>
       </c>
       <c r="D29" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E29" t="s">
-        <v>114</v>
-      </c>
-      <c r="G29" s="10" t="s">
-        <v>115</v>
+        <v>118</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="30" customFormat="1" spans="1:3">
       <c r="A30" s="2"/>
       <c r="B30" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C30" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31" customFormat="1" ht="15" spans="1:7">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
-      <c r="G31" s="10" t="s">
-        <v>118</v>
+      <c r="C31" t="s">
+        <v>122</v>
+      </c>
+      <c r="D31" t="s">
+        <v>123</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="32" customFormat="1" spans="1:2">
@@ -2205,21 +2290,21 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B33" s="2"/>
-      <c r="C33" s="7" t="s">
-        <v>120</v>
+      <c r="C33" s="4" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="D34" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="E34" t="s">
         <v>11</v>
@@ -2227,28 +2312,28 @@
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B37" s="7" t="s">
-        <v>123</v>
+        <v>67</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="2"/>
-      <c r="B38" s="7" t="s">
-        <v>124</v>
+      <c r="B38" s="4" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2"/>
-      <c r="B39" s="7" t="s">
-        <v>125</v>
+      <c r="B39" s="4" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="2"/>
-      <c r="B40" s="7" t="s">
-        <v>96</v>
+      <c r="B40" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:1">
@@ -2256,51 +2341,51 @@
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="B44" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="C44" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2"/>
       <c r="C45" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="B47" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="48" spans="2:2">
       <c r="B48" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B51" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
     </row>
     <row r="52" ht="15" spans="2:3">
       <c r="B52" t="s">
-        <v>100</v>
-      </c>
-      <c r="C52" s="10"/>
+        <v>104</v>
+      </c>
+      <c r="C52" s="11"/>
     </row>
     <row r="53" spans="2:2">
       <c r="B53" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -2323,225 +2408,221 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J47"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
   <cols>
+    <col min="1" max="1" width="22.1818181818182" customWidth="1"/>
     <col min="2" max="2" width="16.9090909090909" customWidth="1"/>
-    <col min="3" max="3" width="15.2727272727273" customWidth="1"/>
+    <col min="3" max="3" width="26.0909090909091" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>73</v>
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>139</v>
       </c>
       <c r="C1" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>76</v>
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="3:3">
       <c r="C3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="4" spans="3:4">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" t="s">
+        <v>145</v>
+      </c>
       <c r="C4" t="s">
-        <v>135</v>
-      </c>
-      <c r="D4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="5" spans="3:3">
-      <c r="C5" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="11" spans="3:3">
-      <c r="C11" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="12" spans="3:3">
-      <c r="C12" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="13" spans="3:3">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>147</v>
+      </c>
+      <c r="C7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" t="s">
+        <v>149</v>
+      </c>
+      <c r="C8" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" t="s">
+        <v>153</v>
+      </c>
       <c r="C13" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="14" spans="3:3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="4"/>
       <c r="C14" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="15" spans="3:3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="4"/>
       <c r="C15" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="3"/>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="4"/>
+      <c r="C16" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="7"/>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="8"/>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="8"/>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="4"/>
+      <c r="B21" s="8"/>
+      <c r="C21" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="8"/>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="2"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="J24" s="4"/>
-    </row>
-    <row r="25" spans="1:10">
-      <c r="A25" s="3"/>
-      <c r="B25" s="2"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="J25" s="4"/>
-    </row>
-    <row r="26" spans="1:10">
-      <c r="A26" s="3"/>
+      <c r="A23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="J25" s="9"/>
+    </row>
+    <row r="26" spans="2:2">
       <c r="B26" s="2"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="J26" s="4"/>
-    </row>
-    <row r="27" spans="1:10">
-      <c r="A27" s="3"/>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>73</v>
+      </c>
       <c r="B27" s="2"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="J27" s="4"/>
-    </row>
-    <row r="28" spans="1:10">
-      <c r="A28" s="3"/>
+      <c r="C27" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3">
       <c r="B28" s="2"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="J28" s="4"/>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="3"/>
-      <c r="B29" s="2"/>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="3"/>
-      <c r="B30" s="2"/>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="3"/>
-      <c r="B31" s="2"/>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="3"/>
-      <c r="B32" s="2"/>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="3"/>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="3"/>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="3"/>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="3"/>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="3"/>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="3"/>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="3"/>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="3"/>
-      <c r="B40" s="2"/>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="3"/>
-      <c r="B41" s="2"/>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="3"/>
-      <c r="B42" s="2"/>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="3"/>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="3"/>
-    </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="3"/>
-      <c r="B45" s="5"/>
-    </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="3"/>
-      <c r="B46" s="5"/>
-    </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="3"/>
-      <c r="B47" s="5"/>
+      <c r="C28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3">
+      <c r="C29" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3">
+      <c r="C30" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="2"/>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="2"/>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="2"/>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="10"/>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="10"/>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B29:B32"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="C23:C24"/>
+  <mergeCells count="3">
+    <mergeCell ref="B26:B28"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B41:B43"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" display="https://help.aliyun.com/document_detail/213179.html"/>
+  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -2550,56 +2631,206 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B3:C17"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14" outlineLevelCol="2"/>
   <cols>
+    <col min="1" max="1" width="16.2727272727273" customWidth="1"/>
     <col min="2" max="2" width="19.5454545454545" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3">
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2"/>
       <c r="B3" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:2">
+    <row r="4" spans="1:1">
+      <c r="A4" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2"/>
       <c r="B5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="8" spans="2:2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="3"/>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="4"/>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="5"/>
       <c r="B8" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="11" spans="2:2">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="2"/>
       <c r="B11" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="13" spans="2:2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="2"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="B13" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="15" spans="2:2">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="2"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="2"/>
       <c r="B15" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="2"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="2" t="s">
+        <v>103</v>
+      </c>
       <c r="B17" t="s">
-        <v>148</v>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="2"/>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="2"/>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="2"/>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="2"/>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="2"/>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="2"/>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="2"/>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="2"/>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="2"/>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="2"/>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="2"/>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="2"/>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="2"/>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="2"/>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="2"/>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="2"/>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="2"/>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="2"/>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="2"/>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>73</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A17:A19"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="A44:A45"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
@@ -2610,59 +2841,59 @@
   <sheetPr/>
   <dimension ref="A3:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:A8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="7"/>
   <sheetData>
     <row r="3" s="1" customFormat="1" ht="15" spans="2:8">
       <c r="B3" s="1" t="s">
-        <v>149</v>
+        <v>168</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>150</v>
+        <v>169</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>151</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>152</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>153</v>
+        <v>172</v>
       </c>
       <c r="B6" t="s">
-        <v>154</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="2"/>
       <c r="B7" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="2"/>
       <c r="B8" t="s">
-        <v>156</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="B11" t="s">
-        <v>158</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="7:7">
       <c r="G14" t="s">
-        <v>159</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -2681,14 +2912,14 @@
   <dimension ref="B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="1" outlineLevelCol="1"/>
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>160</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
